--- a/biology/Médecine/Wilhelm_von_Speyr/Wilhelm_von_Speyr.xlsx
+++ b/biology/Médecine/Wilhelm_von_Speyr/Wilhelm_von_Speyr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm von Speyr est un psychiatre suisse, né le 19 septembre 1852 à Bâle et mort le 29 août 1939 dans la même ville.
 Il est directeur de l'hôpital psychiatrique de Berne, La Waldau, de 1890 à 1933.
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wilhelm von Speyr naît le 19 septembre 1852 à Bâle, dans un milieu privilégié. Il fait partie d'une fratrie de huit enfants. Sa mère meurt alors qu'il a 8 ou 9 ans[1]. Son père se remarie et a deux autres enfants, dont une fille nommée Johanna. Pour sa part, Wilhelm von Speyr ne s'est jamais marié et n'a jamais eu d'enfant[2]. 
-Von Speyr étudie la médecine à l'Université de Bâle. De 1876 à 1878, il travaille comme médecin assistant auprès de Ludwig Wille dans la section où sont soignés les malades mentaux du Bürgerspital de Bâle[a]. De 1881 à début 1882, il exerce la même fonction au Burghölzli (l'hôpital psychiatrique du canton de Zurich) sous la direction d'Auguste Forel. Il s'y lie d'amitié avec Eugen Bleuler, avec qui il conservera toute sa vie des liens amicaux et professionnels[3]. 
-Il publie en 1882 sa thèse intitulée Die alkoholischen Geisteskrankheiten im Basler Irrenhaus 1876-1878[3].
-En avril 1882, il est nommé médecin en second à l'hôpital de La Waldau. À la suite de la démission du directeur Rudolf Schärer pour maladie, il en est nommé directeur par le Conseil-exécutif du canton de Berne en 1890[3]. En 1891, il est en outre nommé professeur de psychiatrie à l'Université de Berne[4].
-Il occupe ces deux fonctions jusqu'à sa retraite en mars 1933. Durant toute la période où il est directeur de l'hôpital, il habite sur place et, pendant de nombreuses années, fait ménage commun avec sa demi-sœur Johanna[1]. À sa retraite, les deux retournent vivre à Bâle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wilhelm von Speyr naît le 19 septembre 1852 à Bâle, dans un milieu privilégié. Il fait partie d'une fratrie de huit enfants. Sa mère meurt alors qu'il a 8 ou 9 ans. Son père se remarie et a deux autres enfants, dont une fille nommée Johanna. Pour sa part, Wilhelm von Speyr ne s'est jamais marié et n'a jamais eu d'enfant. 
+Von Speyr étudie la médecine à l'Université de Bâle. De 1876 à 1878, il travaille comme médecin assistant auprès de Ludwig Wille dans la section où sont soignés les malades mentaux du Bürgerspital de Bâle[a]. De 1881 à début 1882, il exerce la même fonction au Burghölzli (l'hôpital psychiatrique du canton de Zurich) sous la direction d'Auguste Forel. Il s'y lie d'amitié avec Eugen Bleuler, avec qui il conservera toute sa vie des liens amicaux et professionnels. 
+Il publie en 1882 sa thèse intitulée Die alkoholischen Geisteskrankheiten im Basler Irrenhaus 1876-1878.
+En avril 1882, il est nommé médecin en second à l'hôpital de La Waldau. À la suite de la démission du directeur Rudolf Schärer pour maladie, il en est nommé directeur par le Conseil-exécutif du canton de Berne en 1890. En 1891, il est en outre nommé professeur de psychiatrie à l'Université de Berne.
+Il occupe ces deux fonctions jusqu'à sa retraite en mars 1933. Durant toute la période où il est directeur de l'hôpital, il habite sur place et, pendant de nombreuses années, fait ménage commun avec sa demi-sœur Johanna. À sa retraite, les deux retournent vivre à Bâle.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Direction de la Waldau</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À sa prise de fonction en 1890, Wilhelm von Speyr interdit officiellement l'usage de la force à l'encontre des malades[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À sa prise de fonction en 1890, Wilhelm von Speyr interdit officiellement l'usage de la force à l'encontre des malades. 
 Durant son mandat, la Waldau s'est considérablement agrandie (les institutions de Münsingen et de Bellelay ont été ouvertes en même temps). L'utilisation de moyens physiques de contention a encore été réduite et l'abstinence d'alcool a été introduite. Il lisait méticuleusement toute la correspondance des patients.
 </t>
         </is>
